--- a/data/TransitionRates.xlsx
+++ b/data/TransitionRates.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TransitionRates.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>AKP</t>
   </si>
@@ -103,9 +103,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -124,6 +125,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -501,7 +507,7 @@
         <v>1.000410221620609</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -525,7 +531,7 @@
         <v>1.0378138189114963</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -549,7 +555,7 @@
         <v>1.0336409256500012</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -573,7 +579,7 @@
         <v>1.0302643366855451</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -597,7 +603,7 @@
         <v>1.0261115542739199</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -620,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.41</v>
       </c>
@@ -649,7 +655,7 @@
         <v>40.999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.25</v>
       </c>
@@ -678,7 +684,7 @@
         <v>24.999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.16300000000000001</v>
       </c>
@@ -707,7 +713,7 @@
         <v>16.299999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.13200000000000001</v>
       </c>
@@ -736,7 +742,7 @@
         <v>13.200000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -765,9 +771,38 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B9:B13)</f>
+        <v>50.914981678289742</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="5">SUM(C9:C13)</f>
+        <v>25.255769709633839</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>12.035326408940241</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>10.819358791853663</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>1.0745634112825102</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SUM(B14:F14)</f>
+        <v>100.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
